--- a/АСД/РР1/Таблиці залежності часу додавання: видалення даних від кількості елементів.xlsx
+++ b/АСД/РР1/Таблиці залежності часу додавання: видалення даних від кількості елементів.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Yarik/Desktop/✈️ ХАІ 💻/АСД/РР1/Таблиці залежності часу додавання:"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897BDAB3-0B18-E541-81CD-E35697E90919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C83AF4-363B-C945-824D-B230245BB816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4780" yWindow="2660" windowWidth="20620" windowHeight="13260" xr2:uid="{6972E40D-22B5-9A4E-B6A5-B62665345E4E}"/>
+    <workbookView xWindow="4840" yWindow="2280" windowWidth="20620" windowHeight="13260" activeTab="1" xr2:uid="{6972E40D-22B5-9A4E-B6A5-B62665345E4E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Додавання" sheetId="1" r:id="rId1"/>
+    <sheet name="Видалення" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,19 +36,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
-    <t>Таблиці залежності часу додавання/ видалення даних від кількості елементів в структурі</t>
+    <t>Таблиця залежності часу додавання даних від кількості елементів в структурі</t>
+  </si>
+  <si>
+    <t>Таблиця залежності часу видалення даних від кількості елементів в структурі</t>
+  </si>
+  <si>
+    <t>Кількість елементів</t>
+  </si>
+  <si>
+    <t xml:space="preserve">№ заміру </t>
+  </si>
+  <si>
+    <t>Затрачений час, од.</t>
+  </si>
+  <si>
+    <t>Системна узагальнена черга</t>
+  </si>
+  <si>
+    <t>Системна неузагальнена черга</t>
+  </si>
+  <si>
+    <t>Власний клас черги</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -62,7 +92,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -70,12 +100,135 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -390,20 +543,312 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23FF4CFE-0CF2-9446-AB79-56F7A7FC88EB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="12">
+        <v>10000</v>
+      </c>
+      <c r="C4" s="4">
+        <v>51799</v>
+      </c>
+      <c r="D4" s="4">
+        <v>36993</v>
+      </c>
+      <c r="E4" s="4">
+        <v>22993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="4">
+        <v>15613</v>
+      </c>
+      <c r="D5" s="4">
+        <v>20083</v>
+      </c>
+      <c r="E5" s="4">
+        <v>26294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="12">
+        <v>50000</v>
+      </c>
+      <c r="C6" s="4">
+        <v>586180</v>
+      </c>
+      <c r="D6" s="4">
+        <v>92636</v>
+      </c>
+      <c r="E6" s="4">
+        <v>92207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="4">
+        <v>94982</v>
+      </c>
+      <c r="D7" s="4">
+        <v>311894</v>
+      </c>
+      <c r="E7" s="4">
+        <v>160529</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="12">
+        <v>100000</v>
+      </c>
+      <c r="C8" s="4">
+        <v>408859</v>
+      </c>
+      <c r="D8" s="4">
+        <v>178733</v>
+      </c>
+      <c r="E8" s="4">
+        <v>160546</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="4">
+        <v>585621</v>
+      </c>
+      <c r="D9" s="4">
+        <v>424912</v>
+      </c>
+      <c r="E9" s="4">
+        <v>135258</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C8DC38-3F12-A14C-83B3-83836F78F58F}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:5" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="12">
+        <v>10000</v>
+      </c>
+      <c r="C4" s="4">
+        <v>13570</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8780</v>
+      </c>
+      <c r="E4" s="1">
+        <v>7989</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="4">
+        <v>3215</v>
+      </c>
+      <c r="D5" s="14">
+        <v>4838</v>
+      </c>
+      <c r="E5" s="14">
+        <v>12008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="12">
+        <v>50000</v>
+      </c>
+      <c r="C6" s="4">
+        <v>132706</v>
+      </c>
+      <c r="D6" s="4">
+        <v>26462</v>
+      </c>
+      <c r="E6" s="4">
+        <v>39623</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="4">
+        <v>41051</v>
+      </c>
+      <c r="D7" s="4">
+        <v>19113</v>
+      </c>
+      <c r="E7" s="4">
+        <v>43789</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="12">
+        <v>100000</v>
+      </c>
+      <c r="C8" s="4">
+        <v>55270</v>
+      </c>
+      <c r="D8" s="4">
+        <v>41665</v>
+      </c>
+      <c r="E8" s="4">
+        <v>75493</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="4">
+        <v>42022</v>
+      </c>
+      <c r="D9" s="4">
+        <v>31162</v>
+      </c>
+      <c r="E9" s="4">
+        <v>71916</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/АСД/РР1/Таблиці залежності часу додавання: видалення даних від кількості елементів.xlsx
+++ b/АСД/РР1/Таблиці залежності часу додавання: видалення даних від кількості елементів.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Yarik/Desktop/✈️ ХАІ 💻/АСД/РР1/Таблиці залежності часу додавання:"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C83AF4-363B-C945-824D-B230245BB816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B759557-7FAA-1E4A-BD22-657A125000A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4840" yWindow="2280" windowWidth="20620" windowHeight="13260" activeTab="1" xr2:uid="{6972E40D-22B5-9A4E-B6A5-B62665345E4E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="20620" windowHeight="13260" activeTab="1" xr2:uid="{6972E40D-22B5-9A4E-B6A5-B62665345E4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Додавання" sheetId="1" r:id="rId1"/>
@@ -201,6 +201,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -213,12 +214,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -228,7 +229,6 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -562,21 +562,21 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="8"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
@@ -591,7 +591,7 @@
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="13">
         <v>10000</v>
       </c>
       <c r="C4" s="4">
@@ -608,7 +608,7 @@
       <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="4">
         <v>15613</v>
       </c>
@@ -623,7 +623,7 @@
       <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="13">
         <v>50000</v>
       </c>
       <c r="C6" s="4">
@@ -640,7 +640,7 @@
       <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="4">
         <v>94982</v>
       </c>
@@ -655,7 +655,7 @@
       <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="13">
         <v>100000</v>
       </c>
       <c r="C8" s="4">
@@ -672,7 +672,7 @@
       <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="4">
         <v>585621</v>
       </c>
@@ -685,12 +685,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B8:B9"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -701,7 +701,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A4" sqref="A4:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -719,21 +719,21 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="8"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
@@ -748,7 +748,7 @@
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="13">
         <v>10000</v>
       </c>
       <c r="C4" s="4">
@@ -765,14 +765,14 @@
       <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="4">
         <v>3215</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="5">
         <v>4838</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="5">
         <v>12008</v>
       </c>
     </row>
@@ -780,7 +780,7 @@
       <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="13">
         <v>50000</v>
       </c>
       <c r="C6" s="4">
@@ -797,7 +797,7 @@
       <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="4">
         <v>41051</v>
       </c>
@@ -812,7 +812,7 @@
       <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="13">
         <v>100000</v>
       </c>
       <c r="C8" s="4">
@@ -829,7 +829,7 @@
       <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="4">
         <v>42022</v>
       </c>
@@ -842,12 +842,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B8:B9"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/АСД/РР1/Таблиці залежності часу додавання: видалення даних від кількості елементів.xlsx
+++ b/АСД/РР1/Таблиці залежності часу додавання: видалення даних від кількості елементів.xlsx
@@ -8,15 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Yarik/Desktop/✈️ ХАІ 💻/АСД/РР1/Таблиці залежності часу додавання:"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B759557-7FAA-1E4A-BD22-657A125000A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2865AE-BABA-1649-B008-C973051FC384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="20620" windowHeight="13260" activeTab="1" xr2:uid="{6972E40D-22B5-9A4E-B6A5-B62665345E4E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="12600" windowHeight="12580" activeTab="1" xr2:uid="{6972E40D-22B5-9A4E-B6A5-B62665345E4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Додавання" sheetId="1" r:id="rId1"/>
     <sheet name="Видалення" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="_xlchart.v2.0" hidden="1">Видалення!$A$16:$D$17</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Видалення!$A$18:$D$18</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">Видалення!$A$19:$D$19</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">Видалення!$A$20:$D$20</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">Видалення!$A$21:$D$21</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
   <si>
     <t>Таблиця залежності часу додавання даних від кількості елементів в структурі</t>
   </si>
@@ -61,12 +71,15 @@
   <si>
     <t>Власний клас черги</t>
   </si>
+  <si>
+    <t>Середній затрачений час, од.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -81,6 +94,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -193,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -229,6 +250,18 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -244,6 +277,3124 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>залежність часу додавання даних від кількості елементів в структурі</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-UA"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Додавання!$C$2:$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Затрачений час, од.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Власний клас черги</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Додавання!$C$4:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>51799</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15613</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>586180</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94982</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>408859</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>585621</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-18A0-AE47-9C21-E34CA1EA3801}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Додавання!$D$2:$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Затрачений час, од.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Системна узагальнена черга</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Додавання!$D$4:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>36993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20083</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92636</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>311894</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>178733</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>424912</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-18A0-AE47-9C21-E34CA1EA3801}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Додавання!$E$2:$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Затрачений час, од.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Системна неузагальнена черга</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Додавання!$E$4:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>22993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26294</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92207</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160529</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>160546</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>135258</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-18A0-AE47-9C21-E34CA1EA3801}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="247175648"/>
+        <c:axId val="247241408"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="247175648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-UA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="247241408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="247241408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-UA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="247175648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-UA"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-UA"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>залежність часу видалення даних від кількості елементів в структурі</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-UA"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Видалення!$C$2:$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Затрачений час, од.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Власний клас черги</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Видалення!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>13570</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8780</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E023-BB4A-B685-970EBD3B9C25}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Видалення!$D$2:$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Затрачений час, од.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Системна узагальнена черга</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Видалення!$D$4:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8780</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4838</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26462</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19113</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41665</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31162</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E023-BB4A-B685-970EBD3B9C25}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Видалення!$E$2:$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Затрачений час, од.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Системна неузагальнена черга</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Видалення!$E$4:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7989</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39623</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43789</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75493</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71916</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E023-BB4A-B685-970EBD3B9C25}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="108749504"/>
+        <c:axId val="108800528"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="108749504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-UA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="108800528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="108800528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-UA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="108749504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-UA"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-UA"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-UA"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Видалення!$A$16:$D$17</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Видалення!$A$16:$D$16</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Видалення!$A$16:$D$16</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Кількість елементів</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Середній затрачений час, од.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Видалення!$A$18:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="#,##0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6809</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9998.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-84D9-8043-B09E-8F41F99A2D68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Видалення!$A$16:$D$17</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Видалення!$A$16:$D$16</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Видалення!$A$16:$D$16</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Кількість елементів</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Середній затрачений час, од.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Видалення!$A$19:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="#,##0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7989</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22787.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41706</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-84D9-8043-B09E-8F41F99A2D68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Видалення!$A$16:$D$17</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>Видалення!$A$16:$D$16</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Видалення!$A$16:$D$16</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Кількість елементів</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Середній затрачений час, од.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Видалення!$A$20:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="#,##0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36413.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73704.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-84D9-8043-B09E-8F41F99A2D68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="108680928"/>
+        <c:axId val="108975456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="108680928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-UA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="108975456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="108975456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-UA"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="108680928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-UA"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-UA"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8791AE01-A8AB-F2FF-43F5-7C60CFE05EE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97C3A2B0-F252-C61D-F863-48F7AEB2FB6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Диаграмма 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BA0D648-AA6B-8218-B274-46BDE6583612}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Додавання"/>
+      <sheetName val="Видалення"/>
+      <sheetName val="Сортування"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="B2">
+            <v>13570</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>8780</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>7989</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -546,7 +3697,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -693,15 +3844,16 @@
     <mergeCell ref="B6:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C8DC38-3F12-A14C-83B3-83836F78F58F}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B9"/>
+      <selection sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -718,7 +3870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -748,7 +3900,7 @@
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="18">
         <v>10000</v>
       </c>
       <c r="C4" s="4">
@@ -765,7 +3917,9 @@
       <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="14"/>
+      <c r="B5" s="18">
+        <v>10000</v>
+      </c>
       <c r="C5" s="4">
         <v>3215</v>
       </c>
@@ -780,7 +3934,7 @@
       <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="18">
         <v>50000</v>
       </c>
       <c r="C6" s="4">
@@ -797,7 +3951,9 @@
       <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="14"/>
+      <c r="B7" s="18">
+        <v>50000</v>
+      </c>
       <c r="C7" s="4">
         <v>41051</v>
       </c>
@@ -812,7 +3968,7 @@
       <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="18">
         <v>100000</v>
       </c>
       <c r="C8" s="4">
@@ -829,7 +3985,9 @@
       <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="14"/>
+      <c r="B9" s="18">
+        <v>100000</v>
+      </c>
       <c r="C9" s="4">
         <v>42022</v>
       </c>
@@ -840,15 +3998,88 @@
         <v>71916</v>
       </c>
     </row>
+    <row r="16" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+    </row>
+    <row r="17" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" s="9"/>
+      <c r="B17" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="18">
+        <v>10000</v>
+      </c>
+      <c r="B18" s="17">
+        <f>AVERAGE([1]Видалення!B2:B3)</f>
+        <v>11175</v>
+      </c>
+      <c r="C18" s="17">
+        <f>AVERAGE(D4:D5)</f>
+        <v>6809</v>
+      </c>
+      <c r="D18" s="17">
+        <f>AVERAGE(E4:E5)</f>
+        <v>9998.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="18">
+        <v>50000</v>
+      </c>
+      <c r="B19" s="17">
+        <f>AVERAGE([1]Видалення!B4:B5)</f>
+        <v>7989</v>
+      </c>
+      <c r="C19" s="17">
+        <f>AVERAGE(D6:D7)</f>
+        <v>22787.5</v>
+      </c>
+      <c r="D19" s="17">
+        <f>AVERAGE(E6:E7)</f>
+        <v>41706</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="18">
+        <v>100000</v>
+      </c>
+      <c r="B20" s="17" t="e">
+        <f>AVERAGE([1]Видалення!B6:B7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C20" s="17">
+        <f>AVERAGE(D8:D9)</f>
+        <v>36413.5</v>
+      </c>
+      <c r="D20" s="17">
+        <f>AVERAGE(E8:E9)</f>
+        <v>73704.5</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B8:B9"/>
+  <mergeCells count="5">
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:D16"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>